--- a/Projeto CVD - App Bancos.xlsx
+++ b/Projeto CVD - App Bancos.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="54">
   <si>
     <t>Usuários</t>
   </si>
@@ -193,8 +194,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -250,20 +252,42 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -313,7 +337,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9"/>
+  <sortState ref="A2:F9">
+    <sortCondition ref="F1:F9"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Banco"/>
+    <tableColumn id="2" name="Cloud"/>
+    <tableColumn id="3" name="Storage  (GB)"/>
+    <tableColumn id="4" name="IOPS"/>
+    <tableColumn id="5" name="Million Req" dataDxfId="0" dataCellStyle="Comma">
+      <calculatedColumnFormula xml:space="preserve"> ( 1000 * 60 * 60 * 24 * 30 ) / 1000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="US$" dataDxfId="1" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:F8" totalsRowShown="0">
   <autoFilter ref="A1:F8"/>
   <sortState ref="A2:F8">
     <sortCondition ref="F1:F8"/>
@@ -323,10 +367,10 @@
     <tableColumn id="2" name="Cloud"/>
     <tableColumn id="3" name="Storage  (GB)"/>
     <tableColumn id="4" name="IOPS"/>
-    <tableColumn id="5" name="Million Req" dataDxfId="0">
+    <tableColumn id="5" name="Million Req" dataDxfId="2">
       <calculatedColumnFormula xml:space="preserve"> ( 1000 * 60 * 60 * 24 * 30 ) / 1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="US$" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="6" name="US$" dataDxfId="3" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -632,7 +676,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,9 +1021,198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>1024</v>
+      </c>
+      <c r="E2" s="4">
+        <f xml:space="preserve"> ( 100 * 60 * 60 * 24 * 30 ) / 1000000</f>
+        <v>259.2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1103.8800000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>1024</v>
+      </c>
+      <c r="E3" s="4">
+        <f xml:space="preserve"> ( 1000 * 60 * 60 * 24 * 30 ) / 1000000</f>
+        <v>2592</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1616.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>1024</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2001.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>1024</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2001.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>1024</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2041.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>1024</v>
+      </c>
+      <c r="D7">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2706.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>1024</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3672.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>1024</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5919.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1022,11 +1255,11 @@
         <v>1024</v>
       </c>
       <c r="E2">
-        <f xml:space="preserve"> ( 1000 * 60 * 60 * 24 * 30 ) / 1000000</f>
-        <v>2592</v>
+        <f xml:space="preserve"> ( 100 * 60 * 60 * 24 * 30 ) / 1000000</f>
+        <v>259.2</v>
       </c>
       <c r="F2" s="2">
-        <v>1616.92</v>
+        <v>1103.8800000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1133,6 +1366,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
